--- a/PPE_calculator.xlsx
+++ b/PPE_calculator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Desktop/COVID-19/staffing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF77CDF7-E637-EB49-A70C-586E3CF35A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1977C5A1-98D1-B440-A97E-51CDB44826B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Non-ICU</t>
   </si>
@@ -50,9 +50,6 @@
     <t>NA/LPN </t>
   </si>
   <si>
-    <t>Nurse Practitioner /PA </t>
-  </si>
-  <si>
     <t>Resident </t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>Pt Touches / Shift</t>
+  </si>
+  <si>
+    <t>Expected Pt Census</t>
+  </si>
+  <si>
+    <t>Nurse Practitioner/PA </t>
   </si>
   <si>
     <r>
@@ -127,7 +130,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>pt touch / shift</t>
+      <t>Items Used / Pt Touch</t>
     </r>
     <r>
       <rPr>
@@ -136,28 +139,7 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> : number of times per shift a patient will be see by each provider</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>items used / pt touch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : number of items used everytime a staf member sees a patient.  </t>
+      <t xml:space="preserve">: number of items used everytime a staff member sees a patient,  </t>
     </r>
     <r>
       <rPr>
@@ -176,11 +158,32 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> : number of times an item can be used, 1 represents no re-use</t>
+      <t>: number of times an item can be used (1 represents no re-use)</t>
     </r>
   </si>
   <si>
-    <t>Expected Pt Census</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pt Touch / Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>: number of times per shift each patient is seen by each provider type</t>
+    </r>
+  </si>
+  <si>
+    <t>Provider Type</t>
   </si>
 </sst>
 </file>
@@ -513,30 +516,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +533,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,13 +875,13 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
@@ -899,23 +902,23 @@
       <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="F2" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="15">
         <v>50</v>
@@ -923,43 +926,46 @@
       <c r="D3" s="16">
         <v>20</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="G5" s="34" t="s">
+      <c r="C5" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="G5" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="46"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="11" t="str">
         <f>C2</f>
         <v>Non-ICU</v>
@@ -969,7 +975,7 @@
         <v>ICU</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="11" t="str">
         <f>C2</f>
@@ -980,7 +986,7 @@
         <v>ICU</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>0</v>
@@ -988,7 +994,7 @@
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="40" t="str">
+      <c r="M6" s="32" t="str">
         <f>F6</f>
         <v>Item</v>
       </c>
@@ -996,12 +1002,12 @@
         <f>C2</f>
         <v>Non-ICU</v>
       </c>
-      <c r="O6" s="44" t="str">
+      <c r="O6" s="36" t="str">
         <f>D2</f>
         <v>ICU</v>
       </c>
-      <c r="P6" s="41" t="s">
-        <v>23</v>
+      <c r="P6" s="33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -1015,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="18">
         <v>1</v>
@@ -1034,7 +1040,7 @@
         <f>IFERROR(H7/$I7,"")</f>
         <v>0.04</v>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="34" t="str">
         <f>IF(ISBLANK(F7),"",F7)</f>
         <v>N95 Mask</v>
       </c>
@@ -1046,7 +1052,7 @@
         <f>IFERROR(ROUNDUP(D$3*D$28*K7,0),"")</f>
         <v>18</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="38">
         <f>IFERROR(N7+O7,"")</f>
         <v>50</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="21">
         <v>1</v>
@@ -1081,7 +1087,7 @@
         <f>IFERROR(H8/$I8,"")</f>
         <v>1</v>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="34" t="str">
         <f t="shared" ref="M8:M27" si="0">IF(ISBLANK(F8),"",F8)</f>
         <v>Surgical Mask</v>
       </c>
@@ -1093,7 +1099,7 @@
         <f t="shared" ref="O8:O27" si="2">IFERROR(ROUNDUP(D$3*D$28*K8,0),"")</f>
         <v>440</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="38">
         <f t="shared" ref="P8:P27" si="3">IFERROR(N8+O8,"")</f>
         <v>1240</v>
       </c>
@@ -1105,7 +1111,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="F9" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -1124,7 +1130,7 @@
         <f t="shared" ref="K9:K15" si="5">IFERROR(H9/$I9,"")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Gown</v>
       </c>
@@ -1136,19 +1142,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="38">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="F10" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="21">
         <v>2</v>
@@ -1167,7 +1173,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Glove (pair)</v>
       </c>
@@ -1179,21 +1185,21 @@
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="38">
         <f t="shared" si="3"/>
         <v>2480</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22">
         <v>2</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
@@ -1212,7 +1218,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Cap</v>
       </c>
@@ -1224,21 +1230,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="38">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="21">
         <v>2</v>
       </c>
       <c r="D12" s="22"/>
       <c r="F12" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="21">
         <v>1</v>
@@ -1257,7 +1263,7 @@
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Face-shield</v>
       </c>
@@ -1269,14 +1275,14 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="38">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="21">
         <v>4</v>
@@ -1296,7 +1302,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1308,14 +1314,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="46" t="str">
+      <c r="P13" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -1331,7 +1337,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1343,14 +1349,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="46" t="str">
+      <c r="P14" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="21">
         <v>1</v>
@@ -1368,7 +1374,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1380,14 +1386,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P15" s="46" t="str">
+      <c r="P15" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22">
@@ -1405,7 +1411,7 @@
         <f t="shared" ref="K16:K27" si="7">IFERROR(H16/$I16,"")</f>
         <v/>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1417,14 +1423,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P16" s="46" t="str">
+      <c r="P16" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22">
@@ -1442,7 +1448,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1454,14 +1460,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P17" s="46" t="str">
+      <c r="P17" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="21">
         <v>1</v>
@@ -1479,7 +1485,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1491,7 +1497,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P18" s="46" t="str">
+      <c r="P18" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1512,7 +1518,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1524,7 +1530,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P19" s="46" t="str">
+      <c r="P19" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1545,7 +1551,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1557,7 +1563,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P20" s="46" t="str">
+      <c r="P20" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1578,7 +1584,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1590,7 +1596,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P21" s="46" t="str">
+      <c r="P21" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1611,7 +1617,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1623,7 +1629,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P22" s="46" t="str">
+      <c r="P22" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1644,7 +1650,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1656,7 +1662,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P23" s="46" t="str">
+      <c r="P23" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1677,7 +1683,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1689,7 +1695,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P24" s="46" t="str">
+      <c r="P24" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1710,7 +1716,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1722,7 +1728,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P25" s="46" t="str">
+      <c r="P25" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1743,7 +1749,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1755,7 +1761,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P26" s="46" t="str">
+      <c r="P26" s="38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1776,11 +1782,11 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M27" s="43" t="str">
+      <c r="M27" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N27" s="45" t="str">
+      <c r="N27" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1788,14 +1794,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P27" s="47" t="str">
+      <c r="P27" s="39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="11">
         <f>SUM(C7:C27)</f>

--- a/PPE_calculator.xlsx
+++ b/PPE_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1977C5A1-98D1-B440-A97E-51CDB44826B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5B63F2-B1CE-5E44-A102-E81B806449D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="-47900" yWindow="-9900" windowWidth="33600" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Non-ICU</t>
   </si>
@@ -107,90 +107,108 @@
     <t>consumed / touch</t>
   </si>
   <si>
-    <t>Items Used / Pt Touch</t>
-  </si>
-  <si>
-    <t>Items Consumed / Shift</t>
-  </si>
-  <si>
-    <t>Pt Touches / Shift</t>
-  </si>
-  <si>
     <t>Expected Pt Census</t>
   </si>
   <si>
     <t>Nurse Practitioner/PA </t>
+  </si>
+  <si>
+    <t>Provider Type</t>
+  </si>
+  <si>
+    <t>Pt Contacts / Day</t>
+  </si>
+  <si>
+    <t>Items Consumed / Day</t>
+  </si>
+  <si>
+    <t>Items Used / Pt Contact</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>Items Used / Pt Touch</t>
+      <t xml:space="preserve">Pt Contacts / Day: </t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">: number of items used everytime a staff member sees a patient,  </t>
+      <t xml:space="preserve">number of times per shift each patient is seen by each provider type 
+</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>Lifespan</t>
+      <t>Items Used / Pt Contact:</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>: number of times an item can be used (1 represents no re-use)</t>
+      <t xml:space="preserve"> number of items used everytime a staff member sees a patient
+</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>Pt Touch / Shift</t>
+      <t>Lifespan:</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t>: number of times per shift each patient is seen by each provider type</t>
+      <t xml:space="preserve"> number of times an item can be re-used (1 represents no re-use)</t>
     </r>
   </si>
   <si>
-    <t>Provider Type</t>
+    <t>calculations</t>
+  </si>
+  <si>
+    <t>your inputs</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,7 +230,20 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -250,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -274,17 +305,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -326,6 +346,95 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -336,29 +445,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -369,10 +456,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -382,14 +476,91 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -399,21 +570,49 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -422,141 +621,157 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -875,7 +1090,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -894,98 +1109,124 @@
     <col min="18" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="15" t="s">
+    <row r="1" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="47" t="s">
+      <c r="D2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="19">
+        <v>50</v>
+      </c>
+      <c r="D3" s="20">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15">
-        <v>50</v>
-      </c>
-      <c r="D3" s="16">
-        <v>20</v>
-      </c>
-      <c r="F3" s="47" t="s">
+      <c r="D5" s="22"/>
+      <c r="F5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-    </row>
-    <row r="4" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="G5" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="31"/>
+      <c r="I5" s="32" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11" t="str">
+      <c r="M5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+    </row>
+    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="28" t="str">
         <f>C2</f>
         <v>Non-ICU</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="29" t="str">
         <f>D2</f>
         <v>ICU</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="11" t="str">
+      <c r="G6" s="28" t="str">
         <f>C2</f>
         <v>Non-ICU</v>
       </c>
-      <c r="H6" s="12" t="str">
+      <c r="H6" s="51" t="str">
         <f>D2</f>
         <v>ICU</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="52" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -994,42 +1235,42 @@
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="47" t="str">
         <f>F6</f>
         <v>Item</v>
       </c>
-      <c r="N6" s="9" t="str">
+      <c r="N6" s="48" t="str">
         <f>C2</f>
         <v>Non-ICU</v>
       </c>
-      <c r="O6" s="36" t="str">
+      <c r="O6" s="49" t="str">
         <f>D2</f>
         <v>ICU</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="24">
         <v>6</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="27">
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34">
         <v>25</v>
       </c>
       <c r="J7" s="2">
@@ -1040,7 +1281,7 @@
         <f>IFERROR(H7/$I7,"")</f>
         <v>0.04</v>
       </c>
-      <c r="M7" s="34" t="str">
+      <c r="M7" s="41" t="str">
         <f>IF(ISBLANK(F7),"",F7)</f>
         <v>N95 Mask</v>
       </c>
@@ -1052,31 +1293,31 @@
         <f>IFERROR(ROUNDUP(D$3*D$28*K7,0),"")</f>
         <v>18</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="42">
         <f>IFERROR(N7+O7,"")</f>
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="8">
         <v>4</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="24">
         <v>6</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="29">
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="34">
         <v>1</v>
       </c>
       <c r="J8" s="4">
@@ -1087,7 +1328,7 @@
         <f>IFERROR(H8/$I8,"")</f>
         <v>1</v>
       </c>
-      <c r="M8" s="34" t="str">
+      <c r="M8" s="41" t="str">
         <f t="shared" ref="M8:M27" si="0">IF(ISBLANK(F8),"",F8)</f>
         <v>Surgical Mask</v>
       </c>
@@ -1099,27 +1340,27 @@
         <f t="shared" ref="O8:O27" si="2">IFERROR(ROUNDUP(D$3*D$28*K8,0),"")</f>
         <v>440</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="42">
         <f t="shared" ref="P8:P27" si="3">IFERROR(N8+O8,"")</f>
         <v>1240</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="28" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="24"/>
+      <c r="F9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="21">
-        <v>1</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="34">
         <v>1</v>
       </c>
       <c r="J9" s="4">
@@ -1130,7 +1371,7 @@
         <f t="shared" ref="K9:K15" si="5">IFERROR(H9/$I9,"")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="34" t="str">
+      <c r="M9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Gown</v>
       </c>
@@ -1142,27 +1383,27 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="42">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="F10" s="28" t="s">
+      <c r="B10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="34">
         <v>1</v>
       </c>
       <c r="J10" s="4">
@@ -1173,7 +1414,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M10" s="34" t="str">
+      <c r="M10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Glove (pair)</v>
       </c>
@@ -1185,29 +1426,29 @@
         <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="42">
         <f t="shared" si="3"/>
         <v>2480</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22">
+      <c r="C11" s="8"/>
+      <c r="D11" s="24">
         <v>2</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
         <v>0</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="34">
         <v>1</v>
       </c>
       <c r="J11" s="4">
@@ -1218,7 +1459,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M11" s="34" t="str">
+      <c r="M11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Cap</v>
       </c>
@@ -1230,29 +1471,29 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="42">
         <f t="shared" si="3"/>
         <v>800</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="F12" s="28" t="s">
+      <c r="D12" s="24"/>
+      <c r="F12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
-      <c r="I12" s="29">
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="34">
         <v>50</v>
       </c>
       <c r="J12" s="4">
@@ -1263,7 +1504,7 @@
         <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
-      <c r="M12" s="34" t="str">
+      <c r="M12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>Face-shield</v>
       </c>
@@ -1275,25 +1516,25 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="42">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="24">
         <v>6</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="29"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1302,7 +1543,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M13" s="34" t="str">
+      <c r="M13" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1314,21 +1555,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P13" s="38" t="str">
+      <c r="P13" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="29"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1337,7 +1578,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M14" s="34" t="str">
+      <c r="M14" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1349,23 +1590,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P14" s="38" t="str">
+      <c r="P14" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="21">
-        <v>1</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="29"/>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1374,7 +1615,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="34" t="str">
+      <c r="M15" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1386,23 +1627,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P15" s="38" t="str">
+      <c r="P15" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="29"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="4" t="str">
         <f t="shared" ref="J16:J27" si="6">IFERROR(G16/$I16,"")</f>
         <v/>
@@ -1411,7 +1652,7 @@
         <f t="shared" ref="K16:K27" si="7">IFERROR(H16/$I16,"")</f>
         <v/>
       </c>
-      <c r="M16" s="34" t="str">
+      <c r="M16" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1423,23 +1664,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P16" s="38" t="str">
+      <c r="P16" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1448,7 +1689,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M17" s="34" t="str">
+      <c r="M17" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1460,23 +1701,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P17" s="38" t="str">
+      <c r="P17" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="21">
-        <v>1</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="29"/>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1485,7 +1726,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M18" s="34" t="str">
+      <c r="M18" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1497,19 +1738,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P18" s="38" t="str">
+      <c r="P18" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="29"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="24"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1518,7 +1759,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M19" s="34" t="str">
+      <c r="M19" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1530,19 +1771,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P19" s="38" t="str">
+      <c r="P19" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="29"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="24"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1551,7 +1792,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="34" t="str">
+      <c r="M20" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1563,19 +1804,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P20" s="38" t="str">
+      <c r="P20" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="29"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="24"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1584,7 +1825,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M21" s="34" t="str">
+      <c r="M21" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1596,19 +1837,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P21" s="38" t="str">
+      <c r="P21" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="29"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="24"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1617,7 +1858,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M22" s="34" t="str">
+      <c r="M22" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1629,19 +1870,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P22" s="38" t="str">
+      <c r="P22" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="29"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="24"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1650,7 +1891,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M23" s="34" t="str">
+      <c r="M23" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1662,19 +1903,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P23" s="38" t="str">
+      <c r="P23" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="29"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="24"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1683,7 +1924,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M24" s="34" t="str">
+      <c r="M24" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1695,19 +1936,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P24" s="38" t="str">
+      <c r="P24" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="29"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="24"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1716,7 +1957,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M25" s="34" t="str">
+      <c r="M25" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1728,19 +1969,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P25" s="38" t="str">
+      <c r="P25" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="29"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="24"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1749,7 +1990,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M26" s="34" t="str">
+      <c r="M26" s="41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1761,19 +2002,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P26" s="38" t="str">
+      <c r="P26" s="42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="31"/>
+    <row r="27" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="26"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1782,45 +2023,44 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M27" s="35" t="str">
+      <c r="M27" s="43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N27" s="37" t="str">
+      <c r="N27" s="44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O27" s="8" t="str">
+      <c r="O27" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P27" s="39" t="str">
+      <c r="P27" s="46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="10" t="s">
+    <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="28">
         <f>SUM(C7:C27)</f>
         <v>16</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="29">
         <f>SUM(D7:D27)</f>
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
-  <mergeCells count="5">
+  <sheetProtection sheet="1"/>
+  <mergeCells count="4">
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="N5:P5"/>
-    <mergeCell ref="F3:P3"/>
-    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="H2:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PPE_calculator.xlsx
+++ b/PPE_calculator.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5B63F2-B1CE-5E44-A102-E81B806449D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830770B5-78CC-ED41-9441-BA4182BF5908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47900" yWindow="-9900" windowWidth="33600" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="-47920" yWindow="-9900" windowWidth="36720" windowHeight="23720" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
+    <sheet name="about" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Non-ICU</t>
   </si>
@@ -116,99 +117,180 @@
     <t>Provider Type</t>
   </si>
   <si>
-    <t>Pt Contacts / Day</t>
-  </si>
-  <si>
     <t>Items Consumed / Day</t>
   </si>
   <si>
-    <t>Items Used / Pt Contact</t>
+    <t>calculations</t>
+  </si>
+  <si>
+    <t>your inputs</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Contacts / Pt</t>
+  </si>
+  <si>
+    <t>Items Used / Contact</t>
+  </si>
+  <si>
+    <t>PAPR-Hood</t>
+  </si>
+  <si>
+    <t>If you are also collaborating in this space, please contact us.</t>
+  </si>
+  <si>
+    <t>Our goal is not to duplicate work that others have already begun, but rather to synthesize our skill sets and collective efforts. We welcome your feedback and suggestions as we navigate this difficult time together.</t>
+  </si>
+  <si>
+    <t>We are software developers, engineers, big data analysts, surgeons, social scientists, and students dedicated to supporting front line providers through the COVID-19 crisis.</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Pt Contacts / Day: </t>
+      <t>The COVID Staffing Project unites collaborators from </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFA84747"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">number of times per shift each patient is seen by each provider type 
-</t>
+      <t>Vanderbilt University Medical Center</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Items Used / Pt Contact:</t>
+      <t>, Michigan Medicine’s </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFA84747"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> number of items used everytime a staff member sees a patient
-</t>
+      <t>Center for Surgical Training and Research</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Lifespan:</t>
+      <t> (C-STAR) and </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFA84747"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> number of times an item can be re-used (1 represents no re-use)</t>
+      <t>Department of Learning Health Sciences</t>
     </r>
-  </si>
-  <si>
-    <t>calculations</t>
-  </si>
-  <si>
-    <t>your inputs</t>
-  </si>
-  <si>
-    <t>Step 1</t>
-  </si>
-  <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Results</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FFA84747"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Procedural Learning and Safety Collaborative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (PLSC).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Protecting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> the health and well-being of your providers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Redeploying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> your clinical teams; and</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>- Projecting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> your frontline workforce needs;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic poses an unprecedented challenge to health care systems across the world. In response, our multi-institutional collaborative is developing tools to support your hospital in:								</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workbook developed by Erkin Ötleş (MD-PhD student @ UMich)
+questions/comments: eotles@umich.edu </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,13 +311,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -244,12 +319,40 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFA84747"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +383,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -617,11 +732,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -646,9 +841,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -659,9 +851,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -679,12 +868,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -706,12 +889,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,12 +914,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,8 +944,76 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,6 +1027,342 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1024466</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2850A3EA-DB12-0E49-BDA7-5D144E6F5733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="321734" y="110067"/>
+          <a:ext cx="5562599" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Estimate daily PPE usage based on different</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> patient care settings.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Contacts / Pt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>: number of times per day each patient is seen by each provider type </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Items Used / Pt Contact</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>: number of PPE items used each time a provider sees a patient</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Lifespan</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>: number of times an item can be re-used (1 represents no re-use)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313268</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB5868D-510D-344D-A146-630B53FC9CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313268" y="1854200"/>
+          <a:ext cx="4250266" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>You can add/remove provider types</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> in the table below.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313268</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CEAF66-549F-F24A-AE11-C3720F506162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851401" y="1862666"/>
+          <a:ext cx="3530599" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>You can add/remove PPE items</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" b="1" baseline="0">
+              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> in the table below.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9296400" cy="1905000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="COVID Staffing Project">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CB099F-DDBE-1A42-A6BE-F562C41B0A48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32100" t="4667" r="31300" b="-4667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="457200"/>
+          <a:ext cx="9296400" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1087,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADCAB64-EF5D-184C-8CB6-400E6CD8B782}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1109,690 +1684,530 @@
     <col min="18" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+    </row>
+    <row r="5" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+    </row>
+    <row r="7" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="17">
+        <v>50</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+    </row>
+    <row r="8" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+    </row>
+    <row r="9" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+    </row>
+    <row r="10" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+    </row>
+    <row r="11" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="F11" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="N11" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+    </row>
+    <row r="12" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="24" t="str">
+        <f>C6</f>
+        <v>Non-ICU</v>
+      </c>
+      <c r="D12" s="25" t="str">
+        <f>D6</f>
+        <v>ICU</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="24" t="str">
+        <f>C6</f>
+        <v>Non-ICU</v>
+      </c>
+      <c r="H12" s="43" t="str">
+        <f>D6</f>
+        <v>ICU</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="2:16" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="19">
+      <c r="M12" s="39" t="str">
+        <f>F12</f>
+        <v>Item</v>
+      </c>
+      <c r="N12" s="40" t="str">
+        <f>C6</f>
+        <v>Non-ICU</v>
+      </c>
+      <c r="O12" s="41" t="str">
+        <f>D6</f>
+        <v>ICU</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="20">
+        <v>16</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="28">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2">
+        <f>IFERROR(G13/$I13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f>IFERROR(H13/$I13,"")</f>
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="33" t="str">
+        <f>IF(ISBLANK(F13),"",F13)</f>
+        <v>N95 Mask</v>
+      </c>
+      <c r="N13" s="6">
+        <f>IFERROR(ROUNDUP(C$7*C$34*J13,0), "")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f>IFERROR(ROUNDUP(D$7*D$34*K13,0),"")</f>
         <v>50</v>
       </c>
-      <c r="D3" s="20">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="2:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="F5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="28" t="str">
-        <f>C2</f>
-        <v>Non-ICU</v>
-      </c>
-      <c r="D6" s="29" t="str">
-        <f>D2</f>
-        <v>ICU</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="28" t="str">
-        <f>C2</f>
-        <v>Non-ICU</v>
-      </c>
-      <c r="H6" s="51" t="str">
-        <f>D2</f>
-        <v>ICU</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="P13" s="34">
+        <f>IFERROR(N13+O13,"")</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="20"/>
+      <c r="F14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="I14" s="28">
         <v>1</v>
       </c>
-      <c r="M6" s="47" t="str">
-        <f>F6</f>
-        <v>Item</v>
-      </c>
-      <c r="N6" s="48" t="str">
-        <f>C2</f>
-        <v>Non-ICU</v>
-      </c>
-      <c r="O6" s="49" t="str">
-        <f>D2</f>
-        <v>ICU</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="J14" s="4">
+        <f>IFERROR(G14/$I14,"")</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <f>IFERROR(H14/$I14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="33" t="str">
+        <f t="shared" ref="M14:M33" si="0">IF(ISBLANK(F14),"",F14)</f>
+        <v>Surgical Mask</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" ref="N14:N33" si="1">IFERROR(ROUNDUP(C$7*C$34*J14,0), "")</f>
+        <v>1400</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" ref="O14:O33" si="2">IFERROR(ROUNDUP(D$7*D$34*K14,0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="34">
+        <f t="shared" ref="P14:P33" si="3">IFERROR(N14+O14,"")</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="24">
-        <v>6</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="20">
+        <v>16</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H15" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="34">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2">
-        <f>IFERROR(G7/$I7,"")</f>
-        <v>0.04</v>
-      </c>
-      <c r="K7" s="3">
-        <f>IFERROR(H7/$I7,"")</f>
-        <v>0.04</v>
-      </c>
-      <c r="M7" s="41" t="str">
-        <f>IF(ISBLANK(F7),"",F7)</f>
-        <v>N95 Mask</v>
-      </c>
-      <c r="N7" s="6">
-        <f>IFERROR(ROUNDUP(C$3*C$28*J7,0), "")</f>
-        <v>32</v>
-      </c>
-      <c r="O7" s="7">
-        <f>IFERROR(ROUNDUP(D$3*D$28*K7,0),"")</f>
-        <v>18</v>
-      </c>
-      <c r="P7" s="42">
-        <f>IFERROR(N7+O7,"")</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="24">
-        <v>6</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="I15" s="28">
         <v>1</v>
       </c>
-      <c r="H8" s="9">
+      <c r="J15" s="4">
+        <f t="shared" ref="J15:J21" si="4">IFERROR(G15/$I15,"")</f>
         <v>1</v>
       </c>
-      <c r="I8" s="34">
+      <c r="K15" s="5">
+        <f t="shared" ref="K15:K21" si="5">IFERROR(H15/$I15,"")</f>
         <v>1</v>
       </c>
-      <c r="J8" s="4">
-        <f>IFERROR(G8/$I8,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <f>IFERROR(H8/$I8,"")</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="41" t="str">
-        <f t="shared" ref="M8:M27" si="0">IF(ISBLANK(F8),"",F8)</f>
-        <v>Surgical Mask</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" ref="N8:N27" si="1">IFERROR(ROUNDUP(C$3*C$28*J8,0), "")</f>
-        <v>800</v>
-      </c>
-      <c r="O8" s="7">
-        <f t="shared" ref="O8:O27" si="2">IFERROR(ROUNDUP(D$3*D$28*K8,0),"")</f>
-        <v>440</v>
-      </c>
-      <c r="P8" s="42">
-        <f t="shared" ref="P8:P27" si="3">IFERROR(N8+O8,"")</f>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="24"/>
-      <c r="F9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" ref="J9:J15" si="4">IFERROR(G9/$I9,"")</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" ref="K9:K15" si="5">IFERROR(H9/$I9,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="41" t="str">
+      <c r="M15" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Gown</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N15" s="6">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="O9" s="7">
+        <v>1400</v>
+      </c>
+      <c r="O15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="42">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="34">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="24"/>
-      <c r="F10" s="33" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="20"/>
+      <c r="F16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G16" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H16" s="9">
         <v>2</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I16" s="28">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K16" s="5">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M10" s="41" t="str">
+      <c r="M16" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Glove (pair)</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N16" s="6">
         <f t="shared" si="1"/>
-        <v>1600</v>
-      </c>
-      <c r="O10" s="7">
+        <v>2800</v>
+      </c>
+      <c r="O16" s="7">
         <f t="shared" si="2"/>
-        <v>880</v>
-      </c>
-      <c r="P10" s="42">
+        <v>2000</v>
+      </c>
+      <c r="P16" s="34">
         <f t="shared" si="3"/>
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="24">
-        <v>2</v>
-      </c>
-      <c r="F11" s="33" t="s">
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="20">
+        <v>8</v>
+      </c>
+      <c r="F17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I17" s="28">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I11" s="34">
+      <c r="K17" s="5">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J11" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="41" t="str">
+      <c r="M17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Cap</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N17" s="6">
         <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="42">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="34">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="F12" s="33" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="20"/>
+      <c r="F18" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H18" s="9">
         <v>1</v>
       </c>
-      <c r="I12" s="34">
-        <v>50</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I18" s="28">
+        <v>100</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="4"/>
-        <v>0.02</v>
-      </c>
-      <c r="K12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="5">
         <f t="shared" si="5"/>
-        <v>0.02</v>
-      </c>
-      <c r="M12" s="41" t="str">
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Face-shield</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N18" s="6">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="O12" s="7">
+        <v>14</v>
+      </c>
+      <c r="O18" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="P12" s="42">
+        <v>10</v>
+      </c>
+      <c r="P18" s="34">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="24">
-        <v>6</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="4" t="str">
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20">
+        <v>8</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="28">
+        <v>500</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K13" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M13" s="41" t="str">
+        <v>2E-3</v>
+      </c>
+      <c r="M19" s="33" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N13" s="6" t="str">
+        <v>PAPR-Hood</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O13" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P13" s="42" t="str">
+        <v>2</v>
+      </c>
+      <c r="P19" s="34">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="24"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M14" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O14" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P14" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M15" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O15" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P15" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="4" t="str">
-        <f t="shared" ref="J16:J27" si="6">IFERROR(G16/$I16,"")</f>
-        <v/>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f t="shared" ref="K16:K27" si="7">IFERROR(H16/$I16,"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O16" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P16" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="24">
-        <v>1</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M17" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O17" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P17" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K18" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M18" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O18" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P18" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="24"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K19" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M19" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O19" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P19" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="24"/>
-      <c r="F20" s="33"/>
+      <c r="D20" s="20"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K20" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M20" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M20" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1804,28 +2219,30 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P20" s="42" t="str">
+      <c r="P20" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
+      <c r="B21" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="24"/>
-      <c r="F21" s="33"/>
+      <c r="D21" s="20"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="34"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K21" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M21" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M21" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1837,28 +2254,32 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P21" s="42" t="str">
+      <c r="P21" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
+      <c r="B22" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="24"/>
-      <c r="F22" s="33"/>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="F22" s="27"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J22:J33" si="6">IFERROR(G22/$I22,"")</f>
         <v/>
       </c>
       <c r="K22" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M22" s="41" t="str">
+        <f t="shared" ref="K22:K33" si="7">IFERROR(H22/$I22,"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1870,19 +2291,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P22" s="42" t="str">
+      <c r="P22" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
+      <c r="B23" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="24"/>
-      <c r="F23" s="33"/>
+      <c r="D23" s="20"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="34"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1891,7 +2314,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M23" s="41" t="str">
+      <c r="M23" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1903,19 +2326,23 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P23" s="42" t="str">
+      <c r="P23" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="24"/>
-      <c r="F24" s="33"/>
+      <c r="B24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="34"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1924,7 +2351,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M24" s="41" t="str">
+      <c r="M24" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1936,19 +2363,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P24" s="42" t="str">
+      <c r="P24" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="24"/>
-      <c r="F25" s="33"/>
+      <c r="D25" s="20"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="34"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1957,7 +2384,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M25" s="41" t="str">
+      <c r="M25" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1969,19 +2396,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P25" s="42" t="str">
+      <c r="P25" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="24"/>
-      <c r="F26" s="33"/>
+      <c r="D26" s="20"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="34"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1990,7 +2417,7 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M26" s="41" t="str">
+      <c r="M26" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2002,19 +2429,19 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P26" s="42" t="str">
+      <c r="P26" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="26"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="20"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2023,45 +2450,622 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M27" s="43" t="str">
+      <c r="M27" s="33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N27" s="44" t="str">
+      <c r="N27" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O27" s="45" t="str">
+      <c r="O27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P27" s="46" t="str">
+      <c r="P27" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="19"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="20"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M28" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P28" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="20"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M29" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P29" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M30" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P30" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="20"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M31" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P31" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="20"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M32" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P32" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="21"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="22"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M33" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N33" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O33" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P33" s="38" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="28">
-        <f>SUM(C7:C27)</f>
-        <v>16</v>
-      </c>
-      <c r="D28" s="29">
-        <f>SUM(D7:D27)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C34" s="24">
+        <f>SUM(C13:C33)</f>
+        <v>28</v>
+      </c>
+      <c r="D34" s="25">
+        <f>SUM(D13:D33)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection sheet="1"/>
   <mergeCells count="4">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="H2:P4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AE6923-D386-9543-B087-7ADA692DC36C}">
+  <dimension ref="B1:L27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="71"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="69"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="65"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="65"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="62"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="65"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="62"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="65"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="62"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="62"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="65"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="62"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="65"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="62"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="65"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="62"/>
+    </row>
+    <row r="13" spans="2:12" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="65"/>
+      <c r="C13" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="65"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="62"/>
+    </row>
+    <row r="15" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="65"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="62"/>
+    </row>
+    <row r="16" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="65"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="62"/>
+    </row>
+    <row r="17" spans="2:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="65"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="62"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="65"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="62"/>
+    </row>
+    <row r="19" spans="2:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="65"/>
+      <c r="C19" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="62"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="65"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="62"/>
+    </row>
+    <row r="21" spans="2:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="65"/>
+      <c r="C21" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="62"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="65"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="62"/>
+    </row>
+    <row r="23" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="65"/>
+      <c r="C23" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="62"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="65"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="62"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="65"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="62"/>
+    </row>
+    <row r="26" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="61"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="74"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="B27:L27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D25" r:id="rId1" display="mailto:info@covidstaffing.org" xr:uid="{82809BDA-9C2C-814D-9F16-A31CD2C56914}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PPE_calculator.xlsx
+++ b/PPE_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9B3286-7AB0-4643-95F2-B0BE39B892CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC3204-9D4C-E647-A0CF-133D9AABFBBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36600" yWindow="-8540" windowWidth="41780" windowHeight="26400" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>your inputs</t>
-  </si>
-  <si>
-    <t>Contacts / Pt</t>
   </si>
   <si>
     <t>Items Used / Contact</t>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>ICU</t>
+  </si>
+  <si>
+    <t>Contacts / Pt (in 24hr period)</t>
   </si>
 </sst>
 </file>
@@ -1091,48 +1091,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,9 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,6 +1130,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:AW37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2029,43 +2029,43 @@
   <sheetData>
     <row r="1" spans="2:48" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B5" s="66"/>
@@ -2095,36 +2095,36 @@
     </row>
     <row r="7" spans="2:48" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:48" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="88"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="E8" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="73" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="73" t="s">
-        <v>52</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>24</v>
@@ -2356,52 +2356,52 @@
       <c r="AV12" s="32"/>
     </row>
     <row r="13" spans="2:48" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="89"/>
-      <c r="C13" s="74" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="89"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="94" t="s">
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="80" t="s">
         <v>15</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="78" t="s">
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AM13" s="79"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="79"/>
-      <c r="AQ13" s="79"/>
-      <c r="AR13" s="79"/>
-      <c r="AS13" s="79"/>
-      <c r="AT13" s="79"/>
-      <c r="AU13" s="79"/>
-      <c r="AV13" s="80"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="95"/>
     </row>
     <row r="14" spans="2:48" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
@@ -2486,7 +2486,7 @@
         <f t="shared" si="1"/>
         <v>COVID Consult</v>
       </c>
-      <c r="X14" s="95" t="str">
+      <c r="X14" s="81" t="str">
         <f>L8</f>
         <v>ICU</v>
       </c>
@@ -2537,43 +2537,43 @@
         <f>N14</f>
         <v>Item</v>
       </c>
-      <c r="AL14" s="91" t="str">
+      <c r="AL14" s="77" t="str">
         <f>C8</f>
         <v>Floor</v>
       </c>
-      <c r="AM14" s="92" t="str">
+      <c r="AM14" s="78" t="str">
         <f>D8</f>
         <v>Step-down</v>
       </c>
-      <c r="AN14" s="92" t="str">
+      <c r="AN14" s="78" t="str">
         <f t="shared" ref="AN14:AT14" si="3">E8</f>
         <v>COVID floor</v>
       </c>
-      <c r="AO14" s="92" t="str">
+      <c r="AO14" s="78" t="str">
         <f t="shared" si="3"/>
         <v>COVID ICU Step-Down</v>
       </c>
-      <c r="AP14" s="92" t="str">
+      <c r="AP14" s="78" t="str">
         <f t="shared" si="3"/>
         <v>COVID ICU Intubated</v>
       </c>
-      <c r="AQ14" s="92" t="str">
+      <c r="AQ14" s="78" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID floor</v>
       </c>
-      <c r="AR14" s="92" t="str">
+      <c r="AR14" s="78" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID SD</v>
       </c>
-      <c r="AS14" s="92" t="str">
+      <c r="AS14" s="78" t="str">
         <f t="shared" si="3"/>
         <v>Non-COVID ICU</v>
       </c>
-      <c r="AT14" s="92" t="str">
+      <c r="AT14" s="78" t="str">
         <f t="shared" si="3"/>
         <v>COVID Consult</v>
       </c>
-      <c r="AU14" s="93" t="str">
+      <c r="AU14" s="79" t="str">
         <f>L8</f>
         <v>ICU</v>
       </c>
@@ -2681,51 +2681,51 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="98" t="str">
+      <c r="AK15" s="83" t="str">
         <f t="shared" ref="AK15:AK35" si="5">IF(ISBLANK(N15),"",N15)</f>
         <v>N95 Mask</v>
       </c>
-      <c r="AL15" s="99">
+      <c r="AL15" s="84">
         <f t="shared" ref="AL15:AM21" si="6">IFERROR(ROUNDUP(C$9*C$36*Z15,0), "")</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="100">
+      <c r="AM15" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="100">
+      <c r="AN15" s="85">
         <f t="shared" ref="AN15:AT21" si="7">IFERROR(ROUNDUP(E$9*E$36*AB15,0), "")</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="100">
+      <c r="AO15" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="100">
+      <c r="AP15" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="100">
+      <c r="AQ15" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="100">
+      <c r="AR15" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="100">
+      <c r="AS15" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="100">
+      <c r="AT15" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AU15" s="101">
+      <c r="AU15" s="86">
         <f t="shared" ref="AU15:AU35" si="8">IFERROR(ROUNDUP(L$9*L$36*AI15,0),"")</f>
         <v>0</v>
       </c>
-      <c r="AV15" s="102">
+      <c r="AV15" s="87">
         <f>IFERROR(SUM(AL15:AU15),"")</f>
         <v>0</v>
       </c>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="47">
         <v>8</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="47">
         <v>2</v>
@@ -3470,7 +3470,7 @@
       <c r="K21" s="47"/>
       <c r="L21" s="13"/>
       <c r="N21" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" s="5">
         <v>1</v>
@@ -3900,7 +3900,7 @@
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="47">
         <v>0.5</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B27" s="67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="47">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -4585,7 +4585,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AV35" s="97">
+      <c r="AV35" s="82">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -4799,17 +4799,17 @@
     </row>
     <row r="13" spans="2:12" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
-      <c r="C13" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
+      <c r="C13" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="36"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4829,7 +4829,7 @@
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
       <c r="D15" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -4844,7 +4844,7 @@
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -4859,7 +4859,7 @@
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -4885,17 +4885,17 @@
     </row>
     <row r="19" spans="2:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="38"/>
-      <c r="C19" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
+      <c r="C19" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
       <c r="L19" s="36"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -4913,17 +4913,17 @@
     </row>
     <row r="21" spans="2:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="38"/>
-      <c r="C21" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
+      <c r="C21" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="36"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -4941,17 +4941,17 @@
     </row>
     <row r="23" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="38"/>
-      <c r="C23" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
+      <c r="C23" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
       <c r="L23" s="36"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -4970,14 +4970,14 @@
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
+      <c r="D25" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="36"/>
@@ -4996,19 +4996,19 @@
       <c r="L26" s="33"/>
     </row>
     <row r="27" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="85"/>
+      <c r="B27" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/PPE_calculator.xlsx
+++ b/PPE_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eotles/Documents/workspace/covid_staffing_exo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CC3204-9D4C-E647-A0CF-133D9AABFBBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B483AAB9-3436-8B4B-9811-149C6E7FE5D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
+    <workbookView xWindow="-25800" yWindow="-9460" windowWidth="22200" windowHeight="22500" xr2:uid="{CE7FBBC9-ED7D-2B46-9B81-72B960D0E09A}"/>
   </bookViews>
   <sheets>
     <sheet name="roll-up" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Registered Nurse </t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>Contacts / Pt (in 24hr period)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authors: Erkin Otles, Kyla Terhune, Alex Highet, Brian George, Jordan Bohnen										</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1175,6 +1178,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2002,7 +2014,7 @@
   <dimension ref="A1:AW37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4637,7 +4649,6 @@
     </row>
     <row r="37" spans="2:48" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="O13:X13"/>
@@ -4652,10 +4663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AE6923-D386-9543-B087-7ADA692DC36C}">
-  <dimension ref="B1:L27"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -4995,30 +5006,46 @@
       <c r="K26" s="34"/>
       <c r="L26" s="33"/>
     </row>
-    <row r="27" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="98" t="s">
+    <row r="27" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+    </row>
+    <row r="28" spans="2:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="100"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
-    <mergeCell ref="B27:L27"/>
+  <mergeCells count="7">
+    <mergeCell ref="B28:L28"/>
     <mergeCell ref="D25:I25"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="C23:K23"/>
+    <mergeCell ref="B27:L27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D25" r:id="rId1" display="mailto:info@covidstaffing.org" xr:uid="{82809BDA-9C2C-814D-9F16-A31CD2C56914}"/>
